--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pf4-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pf4-Thbd.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H2">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I2">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J2">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.86054266666667</v>
+        <v>29.17403400000001</v>
       </c>
       <c r="N2">
-        <v>104.581628</v>
+        <v>87.52210200000002</v>
       </c>
       <c r="O2">
-        <v>0.4332699312717731</v>
+        <v>0.3835306213274714</v>
       </c>
       <c r="P2">
-        <v>0.433269931271773</v>
+        <v>0.3835306213274714</v>
       </c>
       <c r="Q2">
-        <v>564.2678149772795</v>
+        <v>8.194616612836001</v>
       </c>
       <c r="R2">
-        <v>5078.410334795516</v>
+        <v>73.75154951552402</v>
       </c>
       <c r="S2">
-        <v>0.4244319176371412</v>
+        <v>0.2146066569512312</v>
       </c>
       <c r="T2">
-        <v>0.4244319176371412</v>
+        <v>0.2146066569512312</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H3">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I3">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J3">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>120.371875</v>
       </c>
       <c r="O3">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
       <c r="P3">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
       <c r="Q3">
-        <v>649.4637365079861</v>
+        <v>11.27031165902778</v>
       </c>
       <c r="R3">
-        <v>5845.173628571875</v>
+        <v>101.43280493125</v>
       </c>
       <c r="S3">
-        <v>0.4885147297174247</v>
+        <v>0.2951552247305655</v>
       </c>
       <c r="T3">
-        <v>0.4885147297174247</v>
+        <v>0.2951552247305655</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H4">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I4">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J4">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.474677333333333</v>
+        <v>6.769034333333334</v>
       </c>
       <c r="N4">
-        <v>16.424032</v>
+        <v>20.307103</v>
       </c>
       <c r="O4">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826866</v>
       </c>
       <c r="P4">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826867</v>
       </c>
       <c r="Q4">
-        <v>88.61549420283377</v>
+        <v>1.901336003131778</v>
       </c>
       <c r="R4">
-        <v>797.539447825504</v>
+        <v>17.112024028186</v>
       </c>
       <c r="S4">
-        <v>0.06665495202554861</v>
+        <v>0.04979358799214303</v>
       </c>
       <c r="T4">
-        <v>0.06665495202554862</v>
+        <v>0.04979358799214304</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H5">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I5">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J5">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.86054266666667</v>
+        <v>29.17403400000001</v>
       </c>
       <c r="N5">
-        <v>104.581628</v>
+        <v>87.52210200000002</v>
       </c>
       <c r="O5">
-        <v>0.4332699312717731</v>
+        <v>0.3835306213274714</v>
       </c>
       <c r="P5">
-        <v>0.433269931271773</v>
+        <v>0.3835306213274714</v>
       </c>
       <c r="Q5">
-        <v>11.74983886724711</v>
+        <v>6.450252496586002</v>
       </c>
       <c r="R5">
-        <v>105.748549805224</v>
+        <v>58.05227246927401</v>
       </c>
       <c r="S5">
-        <v>0.008838013634631828</v>
+        <v>0.1689239643762402</v>
       </c>
       <c r="T5">
-        <v>0.008838013634631827</v>
+        <v>0.1689239643762402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H6">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I6">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J6">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>120.371875</v>
       </c>
       <c r="O6">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
       <c r="P6">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
       <c r="Q6">
-        <v>13.52388715347222</v>
+        <v>8.871233317013889</v>
       </c>
       <c r="R6">
-        <v>121.71498438125</v>
+        <v>79.841099853125</v>
       </c>
       <c r="S6">
-        <v>0.01017242026942054</v>
+        <v>0.2323263936736944</v>
       </c>
       <c r="T6">
-        <v>0.01017242026942053</v>
+        <v>0.2323263936736943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H7">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I7">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J7">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.474677333333333</v>
+        <v>6.769034333333334</v>
       </c>
       <c r="N7">
-        <v>16.424032</v>
+        <v>20.307103</v>
       </c>
       <c r="O7">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826866</v>
       </c>
       <c r="P7">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826867</v>
       </c>
       <c r="Q7">
-        <v>1.845254594339556</v>
+        <v>1.496604158617889</v>
       </c>
       <c r="R7">
-        <v>16.607291349056</v>
+        <v>13.469437427561</v>
       </c>
       <c r="S7">
-        <v>0.001387966715833009</v>
+        <v>0.03919417227612564</v>
       </c>
       <c r="T7">
-        <v>0.001387966715833009</v>
+        <v>0.03919417227612564</v>
       </c>
     </row>
   </sheetData>
